--- a/FORMACIONES/INTEGRACION CONTENIDOS DIGITALES/ASISTENCIA/FORMATO DE INASISTENCIA A LA FORMACIÓN.xlsx
+++ b/FORMACIONES/INTEGRACION CONTENIDOS DIGITALES/ASISTENCIA/FORMATO DE INASISTENCIA A LA FORMACIÓN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34e177e0cbf82b1c/ONE DRIVE COMPARTIDOS PC/SENATEC/FORMACIONES/INTEGRACION CONTENIDOS DIGITALES/ASISTENCIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkCoder\Desktop\SENATIC\FORMACIONES\INTEGRACION CONTENIDOS DIGITALES\ASISTENCIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0377D2B5-C1C7-4339-8187-4CB0487CF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC6483C9-9D2E-4D0A-BE3F-7CFAAEE8D60E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062139EB-2B17-4CF4-B8EB-3CEBC6532788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAYO" sheetId="4" r:id="rId1"/>
@@ -651,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,18 +746,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1219,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1535,22 +1523,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,15 +1572,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1690,6 +1666,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1863,7 +1848,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>18150</xdr:colOff>
+      <xdr:colOff>18151</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>971550</xdr:rowOff>
     </xdr:to>
@@ -2158,7 +2143,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2189,43 +2174,43 @@
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="68"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="70"/>
       <c r="F2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="127">
+      <c r="G2" s="126">
         <v>3211019</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1">
       <c r="A3" s="68"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="70"/>
       <c r="F3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="68"/>
@@ -2236,86 +2221,86 @@
       <c r="F4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="113">
         <v>45797</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="113">
         <v>45799</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="113">
         <v>45804</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="113">
         <v>45806</v>
       </c>
-      <c r="K6" s="130">
+      <c r="K6" s="113">
         <v>45752</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="115" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A7" s="122"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="132"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="38">
@@ -16606,8 +16591,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -16625,6 +16608,8 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
@@ -16655,7 +16640,7 @@
       <selection activeCell="E8" sqref="E8:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -16685,41 +16670,41 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1">
       <c r="A2" s="68"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="69"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="127">
+      <c r="G2" s="126">
         <v>3211019</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1">
       <c r="A3" s="68"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="69"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="68"/>
@@ -16730,80 +16715,80 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="141">
         <v>45811</v>
       </c>
-      <c r="H6" s="145">
+      <c r="H6" s="141">
         <v>45813</v>
       </c>
-      <c r="I6" s="145">
+      <c r="I6" s="141">
         <v>45818</v>
       </c>
-      <c r="J6" s="145">
+      <c r="J6" s="141">
         <v>45820</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="L6" s="139" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="144"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="58">
@@ -30179,18 +30164,18 @@
   </sheetPr>
   <dimension ref="A1:O960"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -30219,47 +30204,47 @@
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1">
       <c r="A2" s="68"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="25"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="127">
+      <c r="G2" s="126">
         <v>3211019</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1">
       <c r="A3" s="68"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="25"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="68"/>
@@ -30270,98 +30255,98 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="129"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="141">
         <v>45848</v>
       </c>
-      <c r="H6" s="145">
+      <c r="H6" s="141">
         <v>45853</v>
       </c>
-      <c r="I6" s="145">
+      <c r="I6" s="141">
         <v>45855</v>
       </c>
-      <c r="J6" s="145">
+      <c r="J6" s="141">
         <v>45860</v>
       </c>
-      <c r="K6" s="145">
+      <c r="K6" s="141">
         <v>45862</v>
       </c>
-      <c r="L6" s="145">
+      <c r="L6" s="141">
         <v>45867</v>
       </c>
-      <c r="M6" s="145">
+      <c r="M6" s="141">
         <v>45869</v>
       </c>
-      <c r="N6" s="147" t="s">
+      <c r="N6" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="149" t="s">
+      <c r="O6" s="145" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="150"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="146"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="A8" s="58">
@@ -32039,16 +32024,16 @@
       <c r="I42" s="64">
         <v>1</v>
       </c>
-      <c r="J42" s="115">
+      <c r="J42" s="111">
         <v>1</v>
       </c>
-      <c r="K42" s="115">
+      <c r="K42" s="111">
         <v>1</v>
       </c>
-      <c r="L42" s="115">
+      <c r="L42" s="111">
         <v>1</v>
       </c>
-      <c r="M42" s="116"/>
+      <c r="M42" s="112"/>
       <c r="N42" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -46792,14 +46777,14 @@
   </sheetPr>
   <dimension ref="A1:P960"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="82" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="79" bestFit="1" customWidth="1"/>
@@ -46835,49 +46820,49 @@
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1">
       <c r="A2" s="75"/>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="85"/>
       <c r="F2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="157">
+      <c r="G2" s="153">
         <v>3211019</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="159"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1">
       <c r="A3" s="75"/>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="85"/>
       <c r="F3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="159"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="75"/>
@@ -46888,104 +46873,104 @@
       <c r="F4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="153" t="s">
+      <c r="D6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="152">
+      <c r="G6" s="148">
         <v>45874</v>
       </c>
-      <c r="H6" s="152">
+      <c r="H6" s="148">
         <v>45876</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="148">
         <v>45881</v>
       </c>
-      <c r="J6" s="152">
+      <c r="J6" s="148">
         <v>45883</v>
       </c>
-      <c r="K6" s="152">
+      <c r="K6" s="148">
         <v>45888</v>
       </c>
-      <c r="L6" s="152">
+      <c r="L6" s="148">
         <v>45890</v>
       </c>
-      <c r="M6" s="152">
+      <c r="M6" s="148">
         <v>45895</v>
       </c>
-      <c r="N6" s="152">
+      <c r="N6" s="148">
         <v>45897</v>
       </c>
-      <c r="O6" s="167" t="s">
+      <c r="O6" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="151" t="s">
+      <c r="P6" s="147" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A7" s="162"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="151"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="147"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
       <c r="A8" s="94">
@@ -47428,10 +47413,10 @@
       <c r="D17" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="166">
         <v>3208458049</v>
       </c>
       <c r="G17" s="89">
@@ -47646,22 +47631,22 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
-      <c r="A22" s="111">
+      <c r="A22" s="164">
         <v>15</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="107">
         <v>1025657097</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="166">
         <v>3137983906</v>
       </c>
       <c r="G22" s="89">
@@ -47796,10 +47781,10 @@
       <c r="D25" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="86" t="s">
+      <c r="E25" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="91">
         <v>3122343221</v>
       </c>
       <c r="G25" s="89">
@@ -47980,10 +47965,10 @@
       <c r="D29" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="91">
         <v>314731456</v>
       </c>
       <c r="G29" s="89">
